--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3444.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3444.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.347612630467572</v>
+        <v>1.309980630874634</v>
       </c>
       <c r="B1">
-        <v>2.597938652343623</v>
+        <v>2.411827802658081</v>
       </c>
       <c r="C1">
-        <v>3.1408213251413</v>
+        <v>6.041519641876221</v>
       </c>
       <c r="D1">
-        <v>3.614717139378348</v>
+        <v>1.667244076728821</v>
       </c>
       <c r="E1">
-        <v>2.590516303647858</v>
+        <v>1.302856922149658</v>
       </c>
     </row>
   </sheetData>
